--- a/DEMO_MH.xlsx
+++ b/DEMO_MH.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u819970\Downloads\TEST\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u819970\Downloads\TEST\PracticeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F2F58F-5B02-4F68-AFB8-5A6089A94304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C93DA7D-4670-4852-AF32-055DBC935560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="MH" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MH">MH!$A$1:$P$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MH!$A$1:$O$183</definedName>
+    <definedName name="MH">MH!$A$1:$O$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="158">
   <si>
     <t>STUDYID</t>
   </si>
@@ -74,18 +75,6 @@
     <t>MHTOXGR</t>
   </si>
   <si>
-    <t>MHDTC</t>
-  </si>
-  <si>
-    <t>MHSTDTC</t>
-  </si>
-  <si>
-    <t>MHENDTC</t>
-  </si>
-  <si>
-    <t>MHENRTPT</t>
-  </si>
-  <si>
     <t>MH</t>
   </si>
   <si>
@@ -218,9 +207,6 @@
     <t>Metabolism and nutrition disorders</t>
   </si>
   <si>
-    <t>2022-02</t>
-  </si>
-  <si>
     <t>1.POST SIGMOIDECTOMY FOR DIVERTICULITIS</t>
   </si>
   <si>
@@ -233,9 +219,6 @@
     <t>Endocrine disorders</t>
   </si>
   <si>
-    <t>2018-10</t>
-  </si>
-  <si>
     <t>CONDITION AFTER ELBOW FRACTURE LEFT</t>
   </si>
   <si>
@@ -251,9 +234,6 @@
     <t>CONDITION AFTER METATARSAL FRACTURE ON THE RIGHT</t>
   </si>
   <si>
-    <t>2023-01</t>
-  </si>
-  <si>
     <t>2023</t>
   </si>
   <si>
@@ -266,9 +246,6 @@
     <t>ADIPOSITAS</t>
   </si>
   <si>
-    <t>1996</t>
-  </si>
-  <si>
     <t>2024-11-20</t>
   </si>
   <si>
@@ -293,9 +270,6 @@
     <t>PITYRIASIS VERSICULOR</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>APPENDECTOMY</t>
   </si>
   <si>
@@ -338,9 +312,6 @@
     <t>Musculoskeletal and connective tissue disorders</t>
   </si>
   <si>
-    <t>2020-10</t>
-  </si>
-  <si>
     <t>MIRGRANE</t>
   </si>
   <si>
@@ -353,9 +324,6 @@
     <t>RESTLESS-LEGS-SYNDROME</t>
   </si>
   <si>
-    <t>2020-08</t>
-  </si>
-  <si>
     <t>SENSORY PNP</t>
   </si>
   <si>
@@ -428,9 +396,6 @@
     <t>HEPATITIS E</t>
   </si>
   <si>
-    <t>2024-09-11</t>
-  </si>
-  <si>
     <t>2024-10-08</t>
   </si>
   <si>
@@ -443,9 +408,6 @@
     <t>CEREBRAL ISCHEMIA</t>
   </si>
   <si>
-    <t>2021-01-01</t>
-  </si>
-  <si>
     <t>2021-02-01</t>
   </si>
   <si>
@@ -461,24 +423,15 @@
     <t>NEURODERMITIS</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
     <t>CHEMOTHERAPY INDUCED NAUSEA</t>
   </si>
   <si>
-    <t>2024-06</t>
-  </si>
-  <si>
     <t>2024-06-24</t>
   </si>
   <si>
     <t>DIABETES MELLITUS TYPE 2</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>DIABETIC NEPHROPATHY</t>
   </si>
   <si>
@@ -488,15 +441,9 @@
     <t>PERIPHERAL SENSORIC NEUROPATHY, BURNING HANDS AND FEET</t>
   </si>
   <si>
-    <t>2022-12</t>
-  </si>
-  <si>
     <t>STATUS POST DEEP VEIN THROMBOSIS</t>
   </si>
   <si>
-    <t>2022-07</t>
-  </si>
-  <si>
     <t>LISTINGDEMO</t>
   </si>
   <si>
@@ -549,12 +496,30 @@
   </si>
   <si>
     <t>VPP100080001</t>
+  </si>
+  <si>
+    <t>VPP100080009</t>
+  </si>
+  <si>
+    <t>VPP100080109</t>
+  </si>
+  <si>
+    <t>MHSTDAT</t>
+  </si>
+  <si>
+    <t>MHENDAT</t>
+  </si>
+  <si>
+    <t>MHONGO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,8 +549,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,15 +856,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P175"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,5653 +907,6107 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" t="s">
         <v>51</v>
       </c>
-      <c r="L15" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D22">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D23">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
-      </c>
-      <c r="N26" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27" t="s">
-        <v>68</v>
-      </c>
-      <c r="O27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N29" t="s">
-        <v>71</v>
-      </c>
-      <c r="O29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
-      </c>
-      <c r="P30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L31" t="s">
-        <v>55</v>
-      </c>
-      <c r="N31" t="s">
-        <v>76</v>
-      </c>
-      <c r="P31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>29</v>
-      </c>
-      <c r="M32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>64</v>
-      </c>
-      <c r="P33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>29</v>
-      </c>
-      <c r="M34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
-      </c>
-      <c r="M35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D37">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I37" t="s">
-        <v>29</v>
-      </c>
-      <c r="M37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D38">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D39">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D40">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>29</v>
-      </c>
-      <c r="M40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D41">
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>29</v>
-      </c>
-      <c r="M41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>29</v>
-      </c>
-      <c r="M42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>29</v>
-      </c>
-      <c r="M43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>29</v>
-      </c>
-      <c r="M44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D45">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H45" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="M45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D46">
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I46" t="s">
-        <v>29</v>
-      </c>
-      <c r="M46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D47">
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H47" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>29</v>
-      </c>
-      <c r="M47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s">
-        <v>31</v>
-      </c>
-      <c r="N48" t="s">
-        <v>85</v>
-      </c>
-      <c r="P48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D49">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>29</v>
-      </c>
-      <c r="M49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D50">
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>29</v>
-      </c>
-      <c r="M50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s">
-        <v>88</v>
-      </c>
-      <c r="P51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s">
-        <v>88</v>
-      </c>
-      <c r="P52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J53" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L53" t="s">
-        <v>93</v>
-      </c>
-      <c r="P53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D54">
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>29</v>
-      </c>
-      <c r="M54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D55">
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>29</v>
-      </c>
-      <c r="M55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D56">
         <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H56" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I56" t="s">
-        <v>29</v>
-      </c>
-      <c r="M56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D57">
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H57" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>29</v>
-      </c>
-      <c r="M57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D58">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H58" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I58" t="s">
-        <v>29</v>
-      </c>
-      <c r="M58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D59">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H59" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>29</v>
-      </c>
-      <c r="M59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D60">
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I60" t="s">
-        <v>29</v>
-      </c>
-      <c r="M60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D61">
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>29</v>
-      </c>
-      <c r="M61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H62" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I62" t="s">
-        <v>29</v>
-      </c>
-      <c r="M62" t="s">
-        <v>95</v>
-      </c>
-      <c r="P62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L63" t="s">
-        <v>93</v>
-      </c>
-      <c r="P63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J64" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L64" t="s">
-        <v>21</v>
-      </c>
-      <c r="P64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L65" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" t="s">
-        <v>95</v>
-      </c>
-      <c r="N65" t="s">
-        <v>100</v>
-      </c>
-      <c r="P65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D66">
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J66" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L66" t="s">
-        <v>21</v>
-      </c>
-      <c r="N66" t="s">
-        <v>100</v>
-      </c>
-      <c r="P66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D67">
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>29</v>
-      </c>
-      <c r="M67" t="s">
-        <v>95</v>
-      </c>
-      <c r="P67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N67" s="1"/>
+      <c r="O67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D68">
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H68" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I68" t="s">
-        <v>29</v>
-      </c>
-      <c r="M68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D69">
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H69" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>29</v>
-      </c>
-      <c r="M69" t="s">
-        <v>95</v>
-      </c>
-      <c r="P69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N69" s="1"/>
+      <c r="O69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D70">
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H70" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I70" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L70" t="s">
-        <v>21</v>
-      </c>
-      <c r="M70" t="s">
-        <v>95</v>
-      </c>
-      <c r="N70" t="s">
-        <v>52</v>
-      </c>
-      <c r="P70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D71">
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J71" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L71" t="s">
-        <v>93</v>
-      </c>
-      <c r="N71" t="s">
-        <v>105</v>
-      </c>
-      <c r="P71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D72">
         <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I72" t="s">
-        <v>29</v>
-      </c>
-      <c r="M72" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73">
-        <v>12</v>
-      </c>
-      <c r="E73" t="s">
-        <v>106</v>
-      </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L73" t="s">
-        <v>21</v>
-      </c>
-      <c r="N73" t="s">
-        <v>52</v>
-      </c>
-      <c r="P73" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D74">
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I74" t="s">
-        <v>29</v>
-      </c>
-      <c r="M74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H75" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N75" s="1">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J76" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L76" t="s">
-        <v>93</v>
-      </c>
-      <c r="P76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D77">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H77" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>29</v>
-      </c>
-      <c r="M77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M77" s="1">
+        <v>45458</v>
+      </c>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I78" t="s">
-        <v>29</v>
-      </c>
-      <c r="M78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M78" s="1">
+        <v>44576</v>
+      </c>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D79">
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H79" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I79" t="s">
-        <v>29</v>
-      </c>
-      <c r="M79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M79" s="1">
+        <v>44576</v>
+      </c>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D80">
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H80" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I80" t="s">
-        <v>29</v>
-      </c>
-      <c r="M80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M80" s="1">
+        <v>44576</v>
+      </c>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D81">
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H81" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I81" t="s">
-        <v>29</v>
-      </c>
-      <c r="M81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M81" s="1">
+        <v>44576</v>
+      </c>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D82">
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H82" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I82" t="s">
-        <v>29</v>
-      </c>
-      <c r="M82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M82" s="1">
+        <v>44576</v>
+      </c>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D83">
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I83" t="s">
-        <v>29</v>
-      </c>
-      <c r="M83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M83" s="1">
+        <v>44576</v>
+      </c>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J84" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L84" t="s">
-        <v>93</v>
-      </c>
-      <c r="P84" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H85" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I85" t="s">
-        <v>29</v>
-      </c>
-      <c r="M85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J86" t="s">
-        <v>88</v>
-      </c>
-      <c r="N86" t="s">
-        <v>111</v>
-      </c>
-      <c r="O86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D87">
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H87" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I87" t="s">
-        <v>29</v>
-      </c>
-      <c r="M87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D88">
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H88" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I88" t="s">
-        <v>29</v>
-      </c>
-      <c r="M88" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D89">
         <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J89" t="s">
-        <v>88</v>
-      </c>
-      <c r="N89" t="s">
-        <v>113</v>
-      </c>
-      <c r="O89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D90">
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H90" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I90" t="s">
-        <v>29</v>
-      </c>
-      <c r="M90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D91">
         <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H91" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I91" t="s">
-        <v>29</v>
-      </c>
-      <c r="M91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D92">
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H92" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I92" t="s">
-        <v>29</v>
-      </c>
-      <c r="M92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D93">
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G93" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H93" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I93" t="s">
-        <v>29</v>
-      </c>
-      <c r="M93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D94">
         <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J94" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L94" t="s">
-        <v>93</v>
-      </c>
-      <c r="P94" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D95">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I95" t="s">
-        <v>29</v>
-      </c>
-      <c r="M95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D96">
         <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J96" t="s">
-        <v>88</v>
-      </c>
-      <c r="N96" t="s">
-        <v>116</v>
-      </c>
-      <c r="O96" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G97" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H97" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I97" t="s">
-        <v>29</v>
-      </c>
-      <c r="M97" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H98" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I98" t="s">
-        <v>29</v>
-      </c>
-      <c r="M98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D99">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H99" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I99" t="s">
-        <v>29</v>
-      </c>
-      <c r="M99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D100">
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H100" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I100" t="s">
-        <v>29</v>
-      </c>
-      <c r="M100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D101">
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H101" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I101" t="s">
-        <v>29</v>
-      </c>
-      <c r="M101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D102">
         <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H102" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I102" t="s">
-        <v>29</v>
-      </c>
-      <c r="M102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D103">
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H103" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I103" t="s">
-        <v>29</v>
-      </c>
-      <c r="M103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D104">
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H104" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I104" t="s">
-        <v>29</v>
-      </c>
-      <c r="M104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H105" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I105" t="s">
-        <v>29</v>
-      </c>
-      <c r="M105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D106">
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J106" t="s">
+        <v>47</v>
+      </c>
+      <c r="L106" t="s">
         <v>51</v>
       </c>
-      <c r="L106" t="s">
-        <v>55</v>
-      </c>
-      <c r="P106" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D107">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J107" t="s">
-        <v>88</v>
-      </c>
-      <c r="N107" t="s">
-        <v>121</v>
-      </c>
-      <c r="O107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D108">
         <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F108" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H108" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I108" t="s">
-        <v>29</v>
-      </c>
-      <c r="M108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D109">
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H109" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I109" t="s">
-        <v>29</v>
-      </c>
-      <c r="M109" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D110">
         <v>6</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F110" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H110" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I110" t="s">
-        <v>29</v>
-      </c>
-      <c r="M110" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D111">
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H111" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I111" t="s">
-        <v>29</v>
-      </c>
-      <c r="M111" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D112">
         <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H112" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I112" t="s">
-        <v>29</v>
-      </c>
-      <c r="M112" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D113">
         <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H113" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I113" t="s">
-        <v>29</v>
-      </c>
-      <c r="M113" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D114">
         <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G114" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H114" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I114" t="s">
-        <v>29</v>
-      </c>
-      <c r="M114" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G115" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H115" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I115" t="s">
-        <v>29</v>
-      </c>
-      <c r="M115" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D116">
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H116" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I116" t="s">
-        <v>29</v>
-      </c>
-      <c r="M116" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D117">
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H117" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I117" t="s">
-        <v>29</v>
-      </c>
-      <c r="M117" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D118">
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H118" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I118" t="s">
-        <v>29</v>
-      </c>
-      <c r="M118" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D119">
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H119" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I119" t="s">
-        <v>29</v>
-      </c>
-      <c r="M119" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D120">
         <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H120" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I120" t="s">
-        <v>29</v>
-      </c>
-      <c r="M120" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D121">
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G121" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H121" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I121" t="s">
-        <v>29</v>
-      </c>
-      <c r="M121" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D122">
         <v>8</v>
       </c>
       <c r="E122" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G122" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H122" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I122" t="s">
-        <v>29</v>
-      </c>
-      <c r="M122" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H123" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I123" t="s">
-        <v>29</v>
-      </c>
-      <c r="M123" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H124" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I124" t="s">
-        <v>29</v>
-      </c>
-      <c r="M124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D125">
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H125" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I125" t="s">
-        <v>29</v>
-      </c>
-      <c r="M125" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D126">
         <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H126" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I126" t="s">
-        <v>29</v>
-      </c>
-      <c r="M126" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D127">
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H127" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I127" t="s">
-        <v>29</v>
-      </c>
-      <c r="M127" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D128">
         <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H128" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I128" t="s">
-        <v>29</v>
-      </c>
-      <c r="M128" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D129">
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H129" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I129" t="s">
-        <v>29</v>
-      </c>
-      <c r="M129" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D130">
         <v>8</v>
       </c>
       <c r="E130" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H130" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I130" t="s">
-        <v>29</v>
-      </c>
-      <c r="M130" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G131" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J131" t="s">
-        <v>31</v>
-      </c>
-      <c r="N131" t="s">
-        <v>126</v>
-      </c>
-      <c r="O131" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G132" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
-      </c>
-      <c r="N132" t="s">
-        <v>128</v>
-      </c>
-      <c r="O132" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D133">
         <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H133" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I133" t="s">
-        <v>29</v>
-      </c>
-      <c r="M133" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D134">
         <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J134" t="s">
-        <v>31</v>
-      </c>
-      <c r="N134" t="s">
-        <v>130</v>
-      </c>
-      <c r="O134" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D135">
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L135" t="s">
-        <v>93</v>
-      </c>
-      <c r="P135" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D136">
         <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J136" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L136" t="s">
-        <v>93</v>
-      </c>
-      <c r="P136" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D137">
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H137" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I137" t="s">
-        <v>29</v>
-      </c>
-      <c r="M137" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D138">
         <v>8</v>
       </c>
       <c r="E138" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H138" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I138" t="s">
-        <v>29</v>
-      </c>
-      <c r="M138" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D139">
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H139" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I139" t="s">
-        <v>29</v>
-      </c>
-      <c r="M139" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D140">
         <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H140" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I140" t="s">
-        <v>29</v>
-      </c>
-      <c r="M140" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D141">
         <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F141" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H141" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I141" t="s">
-        <v>29</v>
-      </c>
-      <c r="M141" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D142">
         <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F142" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H142" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I142" t="s">
-        <v>29</v>
-      </c>
-      <c r="M142" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D143">
         <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F143" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G143" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H143" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I143" t="s">
-        <v>29</v>
-      </c>
-      <c r="M143" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G144" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H144" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I144" t="s">
-        <v>29</v>
-      </c>
-      <c r="M144" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D145">
         <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F145" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H145" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I145" t="s">
-        <v>29</v>
-      </c>
-      <c r="M145" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D146">
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F146" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H146" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I146" t="s">
-        <v>29</v>
-      </c>
-      <c r="M146" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D147">
         <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H147" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I147" t="s">
-        <v>29</v>
-      </c>
-      <c r="M147" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D148">
         <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H148" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I148" t="s">
-        <v>29</v>
-      </c>
-      <c r="M148" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D149">
         <v>6</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H149" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I149" t="s">
-        <v>29</v>
-      </c>
-      <c r="M149" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D150">
         <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F150" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G150" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H150" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I150" t="s">
-        <v>29</v>
-      </c>
-      <c r="M150" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D151">
         <v>8</v>
       </c>
       <c r="E151" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F151" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G151" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H151" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I151" t="s">
-        <v>29</v>
-      </c>
-      <c r="M151" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D152">
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G152" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J152" t="s">
-        <v>103</v>
-      </c>
-      <c r="N152" t="s">
-        <v>135</v>
-      </c>
-      <c r="O152" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="L152">
+        <v>4</v>
+      </c>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D153">
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F153" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G153" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H153" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I153" t="s">
-        <v>29</v>
-      </c>
-      <c r="M153" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="L153">
+        <v>4</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N153" s="1"/>
+      <c r="O153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D154">
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F154" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G154" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H154" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I154" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K154" t="s">
-        <v>139</v>
-      </c>
-      <c r="M154" t="s">
-        <v>137</v>
-      </c>
-      <c r="N154" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+      <c r="L154">
+        <v>4</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D155">
         <v>4</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F155" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H155" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I155" t="s">
-        <v>29</v>
-      </c>
-      <c r="M155" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="L155">
+        <v>4</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N155" s="1">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D156">
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F156" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H156" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I156" t="s">
-        <v>29</v>
-      </c>
-      <c r="M156" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="L156">
+        <v>4</v>
+      </c>
+      <c r="M156" s="1">
+        <v>45509</v>
+      </c>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D157">
         <v>6</v>
       </c>
       <c r="E157" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G157" t="s">
-        <v>44</v>
-      </c>
-      <c r="J157" t="s">
-        <v>45</v>
-      </c>
-      <c r="L157" t="s">
-        <v>21</v>
-      </c>
-      <c r="N157" t="s">
-        <v>141</v>
-      </c>
-      <c r="P157" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H157" t="s">
+        <v>24</v>
+      </c>
+      <c r="I157" t="s">
+        <v>25</v>
+      </c>
+      <c r="L157">
+        <v>4</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N157" s="1"/>
+      <c r="O157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D158">
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="F158" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H158" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I158" t="s">
-        <v>29</v>
-      </c>
-      <c r="M158" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="K158" t="s">
+        <v>126</v>
+      </c>
+      <c r="L158">
+        <v>4</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D159">
         <v>8</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F159" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H159" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I159" t="s">
-        <v>29</v>
-      </c>
-      <c r="M159" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N159" s="1">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D160">
         <v>9</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F160" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H160" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I160" t="s">
+        <v>25</v>
+      </c>
+      <c r="L160">
+        <v>4</v>
+      </c>
+      <c r="M160" s="1">
+        <v>45509</v>
+      </c>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>135</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>151</v>
+      </c>
+      <c r="D161">
+        <v>6</v>
+      </c>
+      <c r="E161" t="s">
+        <v>127</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>40</v>
+      </c>
+      <c r="J161" t="s">
+        <v>41</v>
+      </c>
+      <c r="L161">
+        <v>4</v>
+      </c>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>135</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>151</v>
+      </c>
+      <c r="D162">
+        <v>7</v>
+      </c>
+      <c r="E162" t="s">
+        <v>33</v>
+      </c>
+      <c r="F162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G162" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" t="s">
+        <v>24</v>
+      </c>
+      <c r="I162" t="s">
+        <v>25</v>
+      </c>
+      <c r="L162">
+        <v>4</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>135</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>151</v>
+      </c>
+      <c r="D163">
+        <v>8</v>
+      </c>
+      <c r="E163" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163" t="s">
+        <v>22</v>
+      </c>
+      <c r="G163" t="s">
+        <v>34</v>
+      </c>
+      <c r="H163" t="s">
+        <v>24</v>
+      </c>
+      <c r="I163" t="s">
+        <v>25</v>
+      </c>
+      <c r="L163">
+        <v>4</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N163" s="1"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>135</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>151</v>
+      </c>
+      <c r="D164">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>35</v>
+      </c>
+      <c r="F164" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" t="s">
+        <v>35</v>
+      </c>
+      <c r="H164" t="s">
+        <v>24</v>
+      </c>
+      <c r="I164" t="s">
+        <v>25</v>
+      </c>
+      <c r="L164">
+        <v>4</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>135</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>151</v>
+      </c>
+      <c r="D165">
+        <v>10</v>
+      </c>
+      <c r="E165" t="s">
+        <v>42</v>
+      </c>
+      <c r="F165" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" t="s">
+        <v>43</v>
+      </c>
+      <c r="H165" t="s">
+        <v>24</v>
+      </c>
+      <c r="I165" t="s">
+        <v>25</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>135</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>152</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>128</v>
+      </c>
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" t="s">
+        <v>78</v>
+      </c>
+      <c r="J166" t="s">
+        <v>16</v>
+      </c>
+      <c r="L166" t="s">
+        <v>84</v>
+      </c>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>135</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>152</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167" t="s">
+        <v>130</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
+      </c>
+      <c r="G167" t="s">
+        <v>54</v>
+      </c>
+      <c r="J167" t="s">
+        <v>55</v>
+      </c>
+      <c r="L167" t="s">
+        <v>84</v>
+      </c>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>135</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>152</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+      <c r="E168" t="s">
+        <v>131</v>
+      </c>
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+      <c r="G168" t="s">
+        <v>82</v>
+      </c>
+      <c r="J168" t="s">
+        <v>83</v>
+      </c>
+      <c r="L168" t="s">
+        <v>17</v>
+      </c>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>135</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>152</v>
+      </c>
+      <c r="D169">
+        <v>4</v>
+      </c>
+      <c r="E169" t="s">
+        <v>21</v>
+      </c>
+      <c r="F169" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>23</v>
+      </c>
+      <c r="H169" t="s">
+        <v>24</v>
+      </c>
+      <c r="I169" t="s">
+        <v>25</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N169" s="1"/>
+      <c r="O169" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>135</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>152</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170" t="s">
+        <v>132</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" t="s">
+        <v>82</v>
+      </c>
+      <c r="J170" t="s">
+        <v>27</v>
+      </c>
+      <c r="L170" t="s">
+        <v>84</v>
+      </c>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>135</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>152</v>
+      </c>
+      <c r="D171">
+        <v>6</v>
+      </c>
+      <c r="E171" t="s">
         <v>29</v>
       </c>
-      <c r="M160" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="F171" t="s">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>30</v>
+      </c>
+      <c r="H171" t="s">
+        <v>24</v>
+      </c>
+      <c r="I171" t="s">
+        <v>25</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N171" s="1"/>
+      <c r="O171" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>135</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>152</v>
+      </c>
+      <c r="D172">
+        <v>7</v>
+      </c>
+      <c r="E172" t="s">
+        <v>31</v>
+      </c>
+      <c r="F172" t="s">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>32</v>
+      </c>
+      <c r="H172" t="s">
+        <v>24</v>
+      </c>
+      <c r="I172" t="s">
+        <v>25</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N172" s="1"/>
+      <c r="O172" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>135</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>152</v>
+      </c>
+      <c r="D173">
+        <v>8</v>
+      </c>
+      <c r="E173" t="s">
+        <v>33</v>
+      </c>
+      <c r="F173" t="s">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>33</v>
+      </c>
+      <c r="H173" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173" t="s">
+        <v>25</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N173" s="1"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>135</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>152</v>
+      </c>
+      <c r="D174">
+        <v>9</v>
+      </c>
+      <c r="E174" t="s">
+        <v>34</v>
+      </c>
+      <c r="F174" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>34</v>
+      </c>
+      <c r="H174" t="s">
+        <v>24</v>
+      </c>
+      <c r="I174" t="s">
+        <v>25</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N174" s="1"/>
+      <c r="O174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>135</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>152</v>
+      </c>
+      <c r="D175">
+        <v>10</v>
+      </c>
+      <c r="E175" t="s">
+        <v>133</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s">
+        <v>92</v>
+      </c>
+      <c r="J175" t="s">
+        <v>93</v>
+      </c>
+      <c r="L175" t="s">
+        <v>17</v>
+      </c>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>135</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" t="s">
+        <v>152</v>
+      </c>
+      <c r="D176">
+        <v>11</v>
+      </c>
+      <c r="E176" t="s">
+        <v>35</v>
+      </c>
+      <c r="F176" t="s">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>35</v>
+      </c>
+      <c r="H176" t="s">
+        <v>24</v>
+      </c>
+      <c r="I176" t="s">
+        <v>24</v>
+      </c>
+      <c r="L176" t="s">
+        <v>84</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N176" s="1"/>
+      <c r="O176" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>135</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>152</v>
+      </c>
+      <c r="D177">
+        <v>12</v>
+      </c>
+      <c r="E177" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" t="s">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>43</v>
+      </c>
+      <c r="H177" t="s">
+        <v>24</v>
+      </c>
+      <c r="I177" t="s">
+        <v>25</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>135</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>152</v>
+      </c>
+      <c r="D178">
+        <v>13</v>
+      </c>
+      <c r="E178" t="s">
+        <v>134</v>
+      </c>
+      <c r="F178" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s">
+        <v>50</v>
+      </c>
+      <c r="J178" t="s">
+        <v>47</v>
+      </c>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>135</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>152</v>
+      </c>
+      <c r="D179">
+        <v>14</v>
+      </c>
+      <c r="E179" t="s">
+        <v>44</v>
+      </c>
+      <c r="F179" t="s">
+        <v>22</v>
+      </c>
+      <c r="G179" t="s">
+        <v>45</v>
+      </c>
+      <c r="H179" t="s">
+        <v>24</v>
+      </c>
+      <c r="I179" t="s">
+        <v>25</v>
+      </c>
+      <c r="M179" s="1">
+        <v>45100</v>
+      </c>
+      <c r="N179" s="1">
+        <v>45100</v>
+      </c>
+      <c r="O179" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>135</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
         <v>153</v>
       </c>
-      <c r="B161" t="s">
-        <v>16</v>
-      </c>
-      <c r="C161" t="s">
-        <v>169</v>
-      </c>
-      <c r="D161">
-        <v>10</v>
-      </c>
-      <c r="E161" t="s">
-        <v>46</v>
-      </c>
-      <c r="F161" t="s">
-        <v>26</v>
-      </c>
-      <c r="G161" t="s">
-        <v>47</v>
-      </c>
-      <c r="H161" t="s">
-        <v>28</v>
-      </c>
-      <c r="I161" t="s">
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>132</v>
+      </c>
+      <c r="F180" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180" t="s">
+        <v>82</v>
+      </c>
+      <c r="J180" t="s">
+        <v>27</v>
+      </c>
+      <c r="L180" t="s">
+        <v>84</v>
+      </c>
+      <c r="M180" s="1">
+        <v>45436</v>
+      </c>
+      <c r="N180" s="1">
+        <v>45438</v>
+      </c>
+      <c r="O180" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>135</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" t="s">
+        <v>154</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
         <v>29</v>
       </c>
-      <c r="M161" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>153</v>
-      </c>
-      <c r="B162" t="s">
-        <v>16</v>
-      </c>
-      <c r="C162" t="s">
-        <v>170</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-      <c r="E162" t="s">
-        <v>142</v>
-      </c>
-      <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>87</v>
-      </c>
-      <c r="J162" t="s">
-        <v>20</v>
-      </c>
-      <c r="L162" t="s">
-        <v>93</v>
-      </c>
-      <c r="N162" t="s">
-        <v>143</v>
-      </c>
-      <c r="P162" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>153</v>
-      </c>
-      <c r="B163" t="s">
-        <v>16</v>
-      </c>
-      <c r="C163" t="s">
-        <v>170</v>
-      </c>
-      <c r="D163">
+      <c r="F181" t="s">
+        <v>22</v>
+      </c>
+      <c r="G181" t="s">
+        <v>30</v>
+      </c>
+      <c r="H181" t="s">
+        <v>24</v>
+      </c>
+      <c r="I181" t="s">
+        <v>25</v>
+      </c>
+      <c r="M181" s="1">
+        <v>45375</v>
+      </c>
+      <c r="N181" s="1"/>
+      <c r="O181" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>135</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>154</v>
+      </c>
+      <c r="D182">
         <v>2</v>
       </c>
-      <c r="E163" t="s">
-        <v>145</v>
-      </c>
-      <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>58</v>
-      </c>
-      <c r="J163" t="s">
-        <v>59</v>
-      </c>
-      <c r="L163" t="s">
-        <v>93</v>
-      </c>
-      <c r="N163" t="s">
-        <v>146</v>
-      </c>
-      <c r="P163" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>153</v>
-      </c>
-      <c r="B164" t="s">
-        <v>16</v>
-      </c>
-      <c r="C164" t="s">
-        <v>170</v>
-      </c>
-      <c r="D164">
+      <c r="E182" t="s">
+        <v>31</v>
+      </c>
+      <c r="F182" t="s">
+        <v>22</v>
+      </c>
+      <c r="G182" t="s">
+        <v>32</v>
+      </c>
+      <c r="H182" t="s">
+        <v>24</v>
+      </c>
+      <c r="I182" t="s">
+        <v>25</v>
+      </c>
+      <c r="M182" s="1">
+        <v>44736</v>
+      </c>
+      <c r="N182" s="1">
+        <v>45106</v>
+      </c>
+      <c r="O182" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>135</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>154</v>
+      </c>
+      <c r="D183">
         <v>3</v>
       </c>
-      <c r="E164" t="s">
-        <v>147</v>
-      </c>
-      <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>91</v>
-      </c>
-      <c r="J164" t="s">
-        <v>92</v>
-      </c>
-      <c r="L164" t="s">
-        <v>21</v>
-      </c>
-      <c r="N164" t="s">
-        <v>146</v>
-      </c>
-      <c r="P164" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>153</v>
-      </c>
-      <c r="B165" t="s">
-        <v>16</v>
-      </c>
-      <c r="C165" t="s">
-        <v>170</v>
-      </c>
-      <c r="D165">
-        <v>4</v>
-      </c>
-      <c r="E165" t="s">
-        <v>25</v>
-      </c>
-      <c r="F165" t="s">
-        <v>26</v>
-      </c>
-      <c r="G165" t="s">
-        <v>27</v>
-      </c>
-      <c r="H165" t="s">
-        <v>28</v>
-      </c>
-      <c r="I165" t="s">
-        <v>29</v>
-      </c>
-      <c r="M165" t="s">
-        <v>144</v>
-      </c>
-      <c r="P165" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>153</v>
-      </c>
-      <c r="B166" t="s">
-        <v>16</v>
-      </c>
-      <c r="C166" t="s">
-        <v>170</v>
-      </c>
-      <c r="D166">
-        <v>5</v>
-      </c>
-      <c r="E166" t="s">
-        <v>148</v>
-      </c>
-      <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>91</v>
-      </c>
-      <c r="J166" t="s">
-        <v>31</v>
-      </c>
-      <c r="L166" t="s">
-        <v>93</v>
-      </c>
-      <c r="N166" t="s">
-        <v>143</v>
-      </c>
-      <c r="P166" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>153</v>
-      </c>
-      <c r="B167" t="s">
-        <v>16</v>
-      </c>
-      <c r="C167" t="s">
-        <v>170</v>
-      </c>
-      <c r="D167">
-        <v>6</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="E183" t="s">
         <v>33</v>
       </c>
-      <c r="F167" t="s">
-        <v>26</v>
-      </c>
-      <c r="G167" t="s">
-        <v>34</v>
-      </c>
-      <c r="H167" t="s">
-        <v>28</v>
-      </c>
-      <c r="I167" t="s">
-        <v>29</v>
-      </c>
-      <c r="M167" t="s">
-        <v>144</v>
-      </c>
-      <c r="P167" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>153</v>
-      </c>
-      <c r="B168" t="s">
-        <v>16</v>
-      </c>
-      <c r="C168" t="s">
-        <v>170</v>
-      </c>
-      <c r="D168">
-        <v>7</v>
-      </c>
-      <c r="E168" t="s">
-        <v>35</v>
-      </c>
-      <c r="F168" t="s">
-        <v>26</v>
-      </c>
-      <c r="G168" t="s">
-        <v>36</v>
-      </c>
-      <c r="H168" t="s">
-        <v>28</v>
-      </c>
-      <c r="I168" t="s">
-        <v>29</v>
-      </c>
-      <c r="M168" t="s">
-        <v>144</v>
-      </c>
-      <c r="P168" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>153</v>
-      </c>
-      <c r="B169" t="s">
-        <v>16</v>
-      </c>
-      <c r="C169" t="s">
-        <v>170</v>
-      </c>
-      <c r="D169">
-        <v>8</v>
-      </c>
-      <c r="E169" t="s">
-        <v>37</v>
-      </c>
-      <c r="F169" t="s">
-        <v>26</v>
-      </c>
-      <c r="G169" t="s">
-        <v>37</v>
-      </c>
-      <c r="H169" t="s">
-        <v>28</v>
-      </c>
-      <c r="I169" t="s">
-        <v>29</v>
-      </c>
-      <c r="M169" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>153</v>
-      </c>
-      <c r="B170" t="s">
-        <v>16</v>
-      </c>
-      <c r="C170" t="s">
-        <v>170</v>
-      </c>
-      <c r="D170">
-        <v>9</v>
-      </c>
-      <c r="E170" t="s">
-        <v>38</v>
-      </c>
-      <c r="F170" t="s">
-        <v>26</v>
-      </c>
-      <c r="G170" t="s">
-        <v>38</v>
-      </c>
-      <c r="H170" t="s">
-        <v>28</v>
-      </c>
-      <c r="I170" t="s">
-        <v>29</v>
-      </c>
-      <c r="M170" t="s">
-        <v>144</v>
-      </c>
-      <c r="P170" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>153</v>
-      </c>
-      <c r="B171" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171" t="s">
-        <v>170</v>
-      </c>
-      <c r="D171">
-        <v>10</v>
-      </c>
-      <c r="E171" t="s">
-        <v>149</v>
-      </c>
-      <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>102</v>
-      </c>
-      <c r="J171" t="s">
-        <v>103</v>
-      </c>
-      <c r="L171" t="s">
-        <v>21</v>
-      </c>
-      <c r="N171" t="s">
-        <v>144</v>
-      </c>
-      <c r="P171" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>153</v>
-      </c>
-      <c r="B172" t="s">
-        <v>16</v>
-      </c>
-      <c r="C172" t="s">
-        <v>170</v>
-      </c>
-      <c r="D172">
-        <v>11</v>
-      </c>
-      <c r="E172" t="s">
-        <v>39</v>
-      </c>
-      <c r="F172" t="s">
-        <v>26</v>
-      </c>
-      <c r="G172" t="s">
-        <v>39</v>
-      </c>
-      <c r="H172" t="s">
-        <v>28</v>
-      </c>
-      <c r="I172" t="s">
-        <v>28</v>
-      </c>
-      <c r="L172" t="s">
-        <v>93</v>
-      </c>
-      <c r="M172" t="s">
-        <v>144</v>
-      </c>
-      <c r="N172" t="s">
-        <v>150</v>
-      </c>
-      <c r="P172" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>153</v>
-      </c>
-      <c r="B173" t="s">
-        <v>16</v>
-      </c>
-      <c r="C173" t="s">
-        <v>170</v>
-      </c>
-      <c r="D173">
-        <v>12</v>
-      </c>
-      <c r="E173" t="s">
-        <v>46</v>
-      </c>
-      <c r="F173" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" t="s">
-        <v>47</v>
-      </c>
-      <c r="H173" t="s">
-        <v>28</v>
-      </c>
-      <c r="I173" t="s">
-        <v>29</v>
-      </c>
-      <c r="M173" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>153</v>
-      </c>
-      <c r="B174" t="s">
-        <v>16</v>
-      </c>
-      <c r="C174" t="s">
-        <v>170</v>
-      </c>
-      <c r="D174">
-        <v>13</v>
-      </c>
-      <c r="E174" t="s">
-        <v>151</v>
-      </c>
-      <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>54</v>
-      </c>
-      <c r="J174" t="s">
-        <v>51</v>
-      </c>
-      <c r="N174" t="s">
-        <v>152</v>
-      </c>
-      <c r="P174" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>153</v>
-      </c>
-      <c r="B175" t="s">
-        <v>16</v>
-      </c>
-      <c r="C175" t="s">
-        <v>170</v>
-      </c>
-      <c r="D175">
-        <v>14</v>
-      </c>
-      <c r="E175" t="s">
-        <v>48</v>
-      </c>
-      <c r="F175" t="s">
-        <v>26</v>
-      </c>
-      <c r="G175" t="s">
-        <v>49</v>
-      </c>
-      <c r="H175" t="s">
-        <v>28</v>
-      </c>
-      <c r="I175" t="s">
-        <v>29</v>
-      </c>
-      <c r="M175" t="s">
-        <v>144</v>
+      <c r="F183" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" t="s">
+        <v>33</v>
+      </c>
+      <c r="H183" t="s">
+        <v>24</v>
+      </c>
+      <c r="I183" t="s">
+        <v>25</v>
+      </c>
+      <c r="M183" s="1">
+        <v>45536</v>
+      </c>
+      <c r="N183" s="1">
+        <v>45594</v>
       </c>
     </row>
   </sheetData>

--- a/DEMO_MH.xlsx
+++ b/DEMO_MH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u819970\Downloads\TEST\PracticeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C93DA7D-4670-4852-AF32-055DBC935560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBA8D40-ACCF-4128-8C2F-0264B527C7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="126">
   <si>
     <t>STUDYID</t>
   </si>
@@ -93,15 +93,9 @@
     <t>1</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>ONGOING</t>
   </si>
   <si>
-    <t>2024-10-19</t>
-  </si>
-  <si>
     <t>HEADACHES</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>Infections and infestations</t>
   </si>
   <si>
-    <t>2020-12</t>
-  </si>
-  <si>
     <t>MIGRAINES</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t>Respiratory, thoracic and mediastinal disorders</t>
   </si>
   <si>
-    <t>2024-05</t>
-  </si>
-  <si>
     <t>ROSACEA TELANGIECTASIA</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>Vascular disorders</t>
   </si>
   <si>
-    <t>2019-03</t>
-  </si>
-  <si>
     <t>ARTERIAL HYPERTENSIONUN</t>
   </si>
   <si>
@@ -195,9 +180,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>2024-10-28</t>
-  </si>
-  <si>
     <t>DIABETES MELLITUS</t>
   </si>
   <si>
@@ -210,9 +192,6 @@
     <t>1.POST SIGMOIDECTOMY FOR DIVERTICULITIS</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
     <t>AUTOIMMUNE THYROIDITIS</t>
   </si>
   <si>
@@ -225,33 +204,18 @@
     <t>Injury, poisoning and procedural complications</t>
   </si>
   <si>
-    <t>2024-07</t>
-  </si>
-  <si>
     <t>CONDITION AFTER METATARSAL FRACTURE ON THE LEFT</t>
   </si>
   <si>
     <t>CONDITION AFTER METATARSAL FRACTURE ON THE RIGHT</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>POST-PREGNANCY PELVIC VEIN THROMBOSIS</t>
   </si>
   <si>
-    <t>BEFORE</t>
-  </si>
-  <si>
     <t>ADIPOSITAS</t>
   </si>
   <si>
-    <t>2024-11-20</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
     <t>HYPOTHYROIDISM</t>
   </si>
   <si>
@@ -264,9 +228,6 @@
     <t>General disorders and administration site conditions</t>
   </si>
   <si>
-    <t>2025-01-27</t>
-  </si>
-  <si>
     <t>PITYRIASIS VERSICULOR</t>
   </si>
   <si>
@@ -294,12 +255,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>2024-11-11</t>
-  </si>
-  <si>
-    <t>2024-11-21</t>
-  </si>
-  <si>
     <t>IG DECREASE</t>
   </si>
   <si>
@@ -327,93 +282,45 @@
     <t>SENSORY PNP</t>
   </si>
   <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
     <t>CERVICAL SPINE DISTORSION</t>
   </si>
   <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
     <t>LATERAL TIBIAL PLATEAU IMPRESSION FRACTURE WITH ARTICULAR SURFACE INVOLVEMENT ON THE LEFT REQUIRING SURGICAL TREATMENT</t>
   </si>
   <si>
-    <t>2019-05</t>
-  </si>
-  <si>
     <t>OSTEOSYNTHESIS MATERIAL REMOVAL</t>
   </si>
   <si>
-    <t>2021-01</t>
-  </si>
-  <si>
     <t>SKULL CONTUSION</t>
   </si>
   <si>
     <t>TEP HIP</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2024-12-11</t>
-  </si>
-  <si>
-    <t>2024-12-09</t>
-  </si>
-  <si>
     <t>HYPERTENSION</t>
   </si>
   <si>
     <t>LAMINECTOMY</t>
   </si>
   <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2024-12-16</t>
-  </si>
-  <si>
-    <t>2025-01-22</t>
-  </si>
-  <si>
     <t>COVID INFECTION</t>
   </si>
   <si>
     <t>ALLERGIC/IMMUNOLOGIC</t>
   </si>
   <si>
-    <t>2024-08</t>
-  </si>
-  <si>
     <t>DEEP VEIN THROMBOSIS</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>HEPATITIS E</t>
   </si>
   <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
     <t>HYPERURICEMIA</t>
   </si>
   <si>
-    <t>2024-08-07</t>
-  </si>
-  <si>
     <t>CEREBRAL ISCHEMIA</t>
   </si>
   <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
     <t>ISCHAEMIC STROKE</t>
   </si>
   <si>
@@ -424,9 +331,6 @@
   </si>
   <si>
     <t>CHEMOTHERAPY INDUCED NAUSEA</t>
-  </si>
-  <si>
-    <t>2024-06-24</t>
   </si>
   <si>
     <t>DIABETES MELLITUS TYPE 2</t>
@@ -518,7 +422,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -551,7 +455,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,14 +763,13 @@
   <dimension ref="A1:O183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" customWidth="1"/>
+    <col min="13" max="14" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -906,25 +809,25 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N1" t="s">
-        <v>156</v>
+      <c r="M1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="O1" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -944,63 +847,63 @@
       <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="M2" s="1">
+        <v>45584</v>
+      </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L3">
         <v>3</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1"/>
+      <c r="M3" s="1">
+        <v>45584</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -1009,211 +912,208 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
+      <c r="M4" s="1">
+        <v>44136</v>
+      </c>
+      <c r="N4" s="1">
+        <v>44170</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="1"/>
+      <c r="M5" s="1">
+        <v>45584</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L6">
         <v>3</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1">
+        <v>45584</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L7">
         <v>3</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1">
+        <v>45584</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="1"/>
+      <c r="M8" s="1">
+        <v>45584</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L9">
         <v>3</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="1"/>
+      <c r="M9" s="1">
+        <v>45584</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -1222,128 +1122,129 @@
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="M10" s="1">
+        <v>45584</v>
+      </c>
+      <c r="N10" s="1">
+        <v>45622</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="1">
+        <v>45584</v>
+      </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M12" s="1">
+        <v>45584</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M13" s="1">
+        <v>45584</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1352,360 +1253,356 @@
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="M14" s="1">
+        <v>43525</v>
+      </c>
+      <c r="N14" s="1">
+        <v>43534</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="M15" s="1">
+        <v>43525</v>
+      </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="1">
+        <v>43525</v>
+      </c>
       <c r="O16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
         <v>21</v>
       </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M17" s="1">
+        <v>45593</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M18" s="1">
+        <v>45593</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M19" s="1">
+        <v>45593</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N20" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M20" s="1">
+        <v>45593</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M21" s="1">
+        <v>45593</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D22">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N22" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M22" s="1">
+        <v>45593</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D23">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N23" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M23" s="1">
+        <v>45593</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N24" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M24" s="1">
+        <v>45593</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -1713,57 +1610,60 @@
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1" t="s">
-        <v>57</v>
+      <c r="M25" s="1">
+        <v>45593</v>
+      </c>
+      <c r="N25" s="1">
+        <v>45593</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="M26" s="1">
+        <v>45593</v>
+      </c>
       <c r="O26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -1772,28 +1672,30 @@
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="M27" s="1">
+        <v>45593</v>
+      </c>
+      <c r="N27" s="1">
+        <v>45608</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -1802,28 +1704,30 @@
         <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="M28" s="1">
+        <v>45593</v>
+      </c>
+      <c r="N28" s="1">
+        <v>45608</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -1832,28 +1736,30 @@
         <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="M29" s="1">
+        <v>45593</v>
+      </c>
+      <c r="N29" s="1">
+        <v>45593</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -1862,1505 +1768,1465 @@
         <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="M30" s="1">
+        <v>45593</v>
+      </c>
       <c r="O30" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L31" t="s">
-        <v>51</v>
-      </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="M31" s="1">
+        <v>45593</v>
+      </c>
       <c r="O31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
         <v>21</v>
       </c>
-      <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N32" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M32" s="1">
+        <v>45621</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="M33" s="1">
+        <v>45621</v>
+      </c>
       <c r="O33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N34" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M34" s="1">
+        <v>45621</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N35" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M35" s="1">
+        <v>45621</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J36" t="s">
-        <v>74</v>
-      </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="M36" s="1">
+        <v>45621</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D37">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>25</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N37" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M37" s="1">
+        <v>45621</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D38">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I38" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N38" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M38" s="1">
+        <v>45621</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D39">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>25</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N39" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M39" s="1">
+        <v>45621</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D40">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N40" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M40" s="1">
+        <v>45621</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D41">
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>25</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N41" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M41" s="1">
+        <v>45621</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
         <v>21</v>
       </c>
-      <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N42" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M42" s="1">
+        <v>45684</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N43" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M43" s="1">
+        <v>45684</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s">
-        <v>25</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N44" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M44" s="1">
+        <v>45684</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D45">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s">
-        <v>25</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N45" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M45" s="1">
+        <v>45684</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D46">
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N46" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M46" s="1">
+        <v>45684</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D47">
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N47" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M47" s="1">
+        <v>45684</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J48" t="s">
-        <v>27</v>
-      </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+        <v>25</v>
+      </c>
       <c r="O48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D49">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s">
-        <v>25</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N49" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M49" s="1">
+        <v>45684</v>
+      </c>
+      <c r="O49" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D50">
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>25</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N50" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M50" s="1">
+        <v>45684</v>
+      </c>
+      <c r="O50" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J51" t="s">
-        <v>79</v>
-      </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+        <v>66</v>
+      </c>
       <c r="O51" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J52" t="s">
-        <v>79</v>
-      </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+        <v>66</v>
+      </c>
       <c r="O52" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J53" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L53" t="s">
-        <v>84</v>
-      </c>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
+        <v>71</v>
+      </c>
       <c r="O53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D54">
         <v>4</v>
       </c>
       <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
         <v>21</v>
       </c>
-      <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s">
-        <v>25</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N54" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M54" s="1">
+        <v>45607</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D55">
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N55" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M55" s="1">
+        <v>45607</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D56">
         <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N56" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M56" s="1">
+        <v>45607</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D57">
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I57" t="s">
-        <v>25</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N57" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M57" s="1">
+        <v>45607</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D58">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I58" t="s">
-        <v>25</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N58" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M58" s="1">
+        <v>45607</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D59">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I59" t="s">
-        <v>25</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N59" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M59" s="1">
+        <v>45607</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D60">
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N60" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M60" s="1">
+        <v>45607</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D61">
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I61" t="s">
-        <v>25</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N61" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M61" s="1">
+        <v>45607</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
         <v>21</v>
       </c>
-      <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I62" t="s">
-        <v>25</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N62" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M62" s="1">
+        <v>45617</v>
+      </c>
       <c r="O62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="L63" t="s">
-        <v>84</v>
-      </c>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
+        <v>71</v>
+      </c>
       <c r="O63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J64" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
       </c>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
       <c r="O64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N65" s="1"/>
+      <c r="M65" s="1">
+        <v>45617</v>
+      </c>
       <c r="O65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D66">
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
       </c>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
       <c r="O66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D67">
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I67" t="s">
-        <v>25</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N67" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M67" s="1">
+        <v>45617</v>
+      </c>
       <c r="O67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D68">
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I68" t="s">
-        <v>25</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N68" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M68" s="1">
+        <v>45617</v>
+      </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D69">
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H69" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I69" t="s">
-        <v>25</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N69" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M69" s="1">
+        <v>45617</v>
+      </c>
       <c r="O69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D70">
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
       </c>
-      <c r="M70" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N70" s="1"/>
+      <c r="M70" s="1">
+        <v>45617</v>
+      </c>
       <c r="O70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D71">
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J71" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="L71" t="s">
-        <v>84</v>
-      </c>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
+        <v>71</v>
+      </c>
       <c r="O71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D72">
         <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I72" t="s">
-        <v>25</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N72" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M72" s="1">
+        <v>45617</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D73">
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
       </c>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
       <c r="O73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D74">
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I74" t="s">
-        <v>25</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N74" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M74" s="1">
+        <v>45617</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" t="s">
         <v>21</v>
       </c>
-      <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
       <c r="H75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I75" t="s">
-        <v>25</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>96</v>
+        <v>23</v>
+      </c>
+      <c r="M75" s="1">
+        <v>45672</v>
       </c>
       <c r="N75" s="1">
         <v>45673</v>
@@ -3368,2643 +3234,2595 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J76" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L76" t="s">
-        <v>84</v>
-      </c>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
+        <v>71</v>
+      </c>
       <c r="O76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D77">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M77" s="1">
         <v>45458</v>
       </c>
-      <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B78" t="s">
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M78" s="1">
         <v>44576</v>
       </c>
-      <c r="N78" s="1"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B79" t="s">
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D79">
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I79" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M79" s="1">
         <v>44576</v>
       </c>
-      <c r="N79" s="1"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D80">
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I80" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M80" s="1">
         <v>44576</v>
       </c>
-      <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D81">
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M81" s="1">
         <v>44576</v>
       </c>
-      <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D82">
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H82" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M82" s="1">
         <v>44576</v>
       </c>
-      <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D83">
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H83" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I83" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M83" s="1">
         <v>44576</v>
       </c>
-      <c r="N83" s="1"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J84" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L84" t="s">
-        <v>84</v>
-      </c>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
+        <v>71</v>
+      </c>
       <c r="O84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
         <v>21</v>
       </c>
-      <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
       <c r="H85" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I85" t="s">
-        <v>25</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N85" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M85" s="1">
+        <v>45663</v>
+      </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J86" t="s">
-        <v>79</v>
-      </c>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1" t="s">
-        <v>100</v>
+        <v>66</v>
+      </c>
+      <c r="M86" s="1">
+        <v>43586</v>
+      </c>
+      <c r="N86" s="1">
+        <v>43586</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D87">
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H87" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I87" t="s">
-        <v>25</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N87" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M87" s="1">
+        <v>45663</v>
+      </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D88">
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I88" t="s">
-        <v>25</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N88" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M88" s="1">
+        <v>45663</v>
+      </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D89">
         <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J89" t="s">
-        <v>79</v>
-      </c>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
+      </c>
+      <c r="M89" s="1">
+        <v>44197</v>
+      </c>
+      <c r="N89" s="1">
+        <v>44197</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D90">
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I90" t="s">
-        <v>25</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N90" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M90" s="1">
+        <v>45663</v>
+      </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D91">
         <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H91" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I91" t="s">
-        <v>25</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N91" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M91" s="1">
+        <v>45663</v>
+      </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D92">
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H92" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I92" t="s">
-        <v>25</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N92" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M92" s="1">
+        <v>45663</v>
+      </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D93">
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H93" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I93" t="s">
-        <v>25</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N93" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M93" s="1">
+        <v>45663</v>
+      </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D94">
         <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J94" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L94" t="s">
-        <v>84</v>
-      </c>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
+        <v>71</v>
+      </c>
       <c r="O94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D95">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H95" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I95" t="s">
-        <v>25</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N95" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M95" s="1">
+        <v>45663</v>
+      </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D96">
         <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J96" t="s">
-        <v>79</v>
-      </c>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1" t="s">
-        <v>105</v>
+        <v>66</v>
+      </c>
+      <c r="M96" s="1">
+        <v>45663</v>
+      </c>
+      <c r="N96" s="1">
+        <v>45663</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
         <v>21</v>
       </c>
-      <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>23</v>
-      </c>
       <c r="H97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I97" t="s">
-        <v>25</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N97" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M97" s="1">
+        <v>45637</v>
+      </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B98" t="s">
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H98" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I98" t="s">
-        <v>25</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N98" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M98" s="1">
+        <v>45637</v>
+      </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D99">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I99" t="s">
-        <v>25</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N99" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M99" s="1">
+        <v>45637</v>
+      </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B100" t="s">
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D100">
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I100" t="s">
-        <v>25</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N100" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M100" s="1">
+        <v>45637</v>
+      </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D101">
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H101" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I101" t="s">
-        <v>25</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N101" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M101" s="1">
+        <v>45637</v>
+      </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D102">
         <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I102" t="s">
-        <v>25</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N102" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M102" s="1">
+        <v>45637</v>
+      </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D103">
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G103" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I103" t="s">
-        <v>25</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N103" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M103" s="1">
+        <v>45637</v>
+      </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D104">
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H104" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I104" t="s">
-        <v>25</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N104" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M104" s="1">
+        <v>45637</v>
+      </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" t="s">
         <v>21</v>
       </c>
-      <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>23</v>
-      </c>
       <c r="H105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I105" t="s">
-        <v>25</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N105" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M105" s="1">
+        <v>45635</v>
+      </c>
+      <c r="N105" s="1">
+        <v>45635</v>
+      </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D106">
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L106" t="s">
-        <v>51</v>
-      </c>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="M106" s="1">
+        <v>45635</v>
+      </c>
       <c r="O106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D107">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J107" t="s">
-        <v>79</v>
-      </c>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1" t="s">
-        <v>110</v>
+        <v>66</v>
+      </c>
+      <c r="M107" s="1">
+        <v>45635</v>
+      </c>
+      <c r="N107" s="1">
+        <v>45635</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D108">
         <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H108" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I108" t="s">
-        <v>25</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N108" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M108" s="1">
+        <v>45635</v>
+      </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B109" t="s">
         <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D109">
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H109" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I109" t="s">
-        <v>25</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N109" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M109" s="1">
+        <v>45635</v>
+      </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D110">
         <v>6</v>
       </c>
       <c r="E110" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H110" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I110" t="s">
-        <v>25</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N110" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M110" s="1">
+        <v>45635</v>
+      </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B111" t="s">
         <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D111">
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H111" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I111" t="s">
-        <v>25</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N111" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M111" s="1">
+        <v>45635</v>
+      </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B112" t="s">
         <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D112">
         <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H112" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I112" t="s">
-        <v>25</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M112" s="1">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B113" t="s">
         <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D113">
         <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H113" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I113" t="s">
-        <v>25</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M113" s="1">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B114" t="s">
         <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D114">
         <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H114" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I114" t="s">
-        <v>25</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M114" s="1">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B115" t="s">
         <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
         <v>21</v>
       </c>
-      <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
-        <v>23</v>
-      </c>
       <c r="H115" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I115" t="s">
-        <v>25</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N115" s="1"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M115" s="1">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B116" t="s">
         <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D116">
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H116" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M116" s="1">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B117" t="s">
         <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D117">
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I117" t="s">
-        <v>25</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M117" s="1">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D118">
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H118" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I118" t="s">
-        <v>25</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N118" s="1"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M118" s="1">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D119">
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H119" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I119" t="s">
-        <v>25</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N119" s="1"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M119" s="1">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D120">
         <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H120" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I120" t="s">
-        <v>25</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M120" s="1">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D121">
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H121" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I121" t="s">
-        <v>25</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N121" s="1"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M121" s="1">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D122">
         <v>8</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G122" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H122" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I122" t="s">
-        <v>25</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N122" s="1"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M122" s="1">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
         <v>21</v>
       </c>
-      <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>23</v>
-      </c>
       <c r="H123" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I123" t="s">
-        <v>25</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N123" s="1"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M123" s="1">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H124" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I124" t="s">
-        <v>25</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N124" s="1"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M124" s="1">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D125">
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H125" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I125" t="s">
-        <v>25</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N125" s="1"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M125" s="1">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B126" t="s">
         <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D126">
         <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H126" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I126" t="s">
-        <v>25</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N126" s="1"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M126" s="1">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D127">
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H127" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I127" t="s">
-        <v>25</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N127" s="1"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="M127" s="1">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D128">
         <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H128" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I128" t="s">
-        <v>25</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N128" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M128" s="1">
+        <v>45679</v>
+      </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D129">
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H129" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I129" t="s">
-        <v>25</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N129" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M129" s="1">
+        <v>45679</v>
+      </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D130">
         <v>8</v>
       </c>
       <c r="E130" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H130" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I130" t="s">
-        <v>25</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N130" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M130" s="1">
+        <v>45679</v>
+      </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
       </c>
       <c r="G131" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="J131" t="s">
-        <v>27</v>
-      </c>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
+      </c>
+      <c r="M131" s="1">
+        <v>45616</v>
+      </c>
+      <c r="N131" s="1">
+        <v>45616</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
       </c>
       <c r="G132" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
-      </c>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1" t="s">
-        <v>117</v>
+        <v>43</v>
+      </c>
+      <c r="M132" s="1">
+        <v>45616</v>
+      </c>
+      <c r="N132" s="1">
+        <v>45616</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B133" t="s">
         <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D133">
         <v>3</v>
       </c>
       <c r="E133" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" t="s">
         <v>21</v>
       </c>
-      <c r="F133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" t="s">
-        <v>23</v>
-      </c>
       <c r="H133" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I133" t="s">
-        <v>25</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N133" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M133" s="1">
+        <v>45616</v>
+      </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D134">
         <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J134" t="s">
-        <v>27</v>
-      </c>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1" t="s">
-        <v>119</v>
+        <v>25</v>
+      </c>
+      <c r="M134" s="1">
+        <v>45555</v>
+      </c>
+      <c r="N134" s="1">
+        <v>45573</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D135">
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L135" t="s">
-        <v>84</v>
-      </c>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="M135" s="1">
+        <v>45555</v>
+      </c>
       <c r="O135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D136">
         <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J136" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L136" t="s">
-        <v>84</v>
-      </c>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="M136" s="1">
+        <v>45555</v>
+      </c>
       <c r="O136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D137">
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H137" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I137" t="s">
-        <v>25</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N137" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M137" s="1">
+        <v>45616</v>
+      </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D138">
         <v>8</v>
       </c>
       <c r="E138" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H138" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I138" t="s">
-        <v>25</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N138" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M138" s="1">
+        <v>45616</v>
+      </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D139">
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H139" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I139" t="s">
-        <v>25</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N139" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M139" s="1">
+        <v>45616</v>
+      </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B140" t="s">
         <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D140">
         <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H140" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I140" t="s">
-        <v>25</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N140" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M140" s="1">
+        <v>45616</v>
+      </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D141">
         <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H141" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I141" t="s">
-        <v>25</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N141" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M141" s="1">
+        <v>45616</v>
+      </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D142">
         <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H142" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I142" t="s">
-        <v>25</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N142" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M142" s="1">
+        <v>45616</v>
+      </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D143">
         <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G143" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H143" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I143" t="s">
-        <v>25</v>
-      </c>
-      <c r="M143" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N143" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M143" s="1">
+        <v>45616</v>
+      </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
       <c r="E144" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" t="s">
         <v>21</v>
       </c>
-      <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>23</v>
-      </c>
       <c r="H144" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I144" t="s">
-        <v>25</v>
-      </c>
-      <c r="M144" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N144" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M144" s="1">
+        <v>45511</v>
+      </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D145">
         <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H145" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I145" t="s">
-        <v>25</v>
-      </c>
-      <c r="M145" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N145" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M145" s="1">
+        <v>45511</v>
+      </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D146">
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H146" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I146" t="s">
-        <v>25</v>
-      </c>
-      <c r="M146" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N146" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M146" s="1">
+        <v>45511</v>
+      </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B147" t="s">
         <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D147">
         <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H147" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I147" t="s">
-        <v>25</v>
-      </c>
-      <c r="M147" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N147" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M147" s="1">
+        <v>45511</v>
+      </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D148">
         <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H148" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I148" t="s">
-        <v>25</v>
-      </c>
-      <c r="M148" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N148" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M148" s="1">
+        <v>45511</v>
+      </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B149" t="s">
         <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D149">
         <v>6</v>
       </c>
       <c r="E149" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H149" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I149" t="s">
-        <v>25</v>
-      </c>
-      <c r="M149" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N149" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M149" s="1">
+        <v>45511</v>
+      </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D150">
         <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H150" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I150" t="s">
-        <v>25</v>
-      </c>
-      <c r="M150" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N150" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M150" s="1">
+        <v>45511</v>
+      </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D151">
         <v>8</v>
       </c>
       <c r="E151" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G151" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H151" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I151" t="s">
-        <v>25</v>
-      </c>
-      <c r="M151" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N151" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M151" s="1">
+        <v>45511</v>
+      </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D152">
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
       </c>
       <c r="G152" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J152" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="L152">
         <v>4</v>
       </c>
-      <c r="M152" s="1"/>
-      <c r="N152" s="1" t="s">
-        <v>123</v>
+      <c r="M152" s="1">
+        <v>44228</v>
+      </c>
+      <c r="N152" s="1">
+        <v>44228</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D153">
         <v>2</v>
       </c>
       <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" t="s">
+        <v>20</v>
+      </c>
+      <c r="G153" t="s">
         <v>21</v>
       </c>
-      <c r="F153" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" t="s">
-        <v>23</v>
-      </c>
       <c r="H153" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I153" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L153">
         <v>4</v>
       </c>
-      <c r="M153" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N153" s="1"/>
+      <c r="M153" s="1">
+        <v>45498</v>
+      </c>
       <c r="O153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B154" t="s">
         <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D154">
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G154" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H154" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I154" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K154" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="L154">
         <v>4</v>
       </c>
-      <c r="M154" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N154" s="1" t="s">
-        <v>124</v>
+      <c r="M154" s="1">
+        <v>45498</v>
+      </c>
+      <c r="N154" s="1">
+        <v>45498</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B155" t="s">
         <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D155">
         <v>4</v>
       </c>
       <c r="E155" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H155" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I155" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L155">
         <v>4</v>
       </c>
-      <c r="M155" s="1" t="s">
-        <v>124</v>
+      <c r="M155" s="1">
+        <v>45498</v>
       </c>
       <c r="N155" s="1">
         <v>45499</v>
@@ -6012,31 +5830,31 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B156" t="s">
         <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D156">
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H156" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I156" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L156">
         <v>4</v>
@@ -6044,121 +5862,119 @@
       <c r="M156" s="1">
         <v>45509</v>
       </c>
-      <c r="N156" s="1"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B157" t="s">
         <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D157">
         <v>6</v>
       </c>
       <c r="E157" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" t="s">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
         <v>21</v>
       </c>
-      <c r="F157" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" t="s">
-        <v>23</v>
-      </c>
       <c r="H157" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I157" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L157">
         <v>4</v>
       </c>
-      <c r="M157" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N157" s="1"/>
+      <c r="M157" s="1">
+        <v>45498</v>
+      </c>
       <c r="O157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B158" t="s">
         <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D158">
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G158" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H158" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I158" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K158" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="L158">
         <v>4</v>
       </c>
-      <c r="M158" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N158" s="1" t="s">
-        <v>124</v>
+      <c r="M158" s="1">
+        <v>45498</v>
+      </c>
+      <c r="N158" s="1">
+        <v>45498</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B159" t="s">
         <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D159">
         <v>8</v>
       </c>
       <c r="E159" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G159" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H159" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I159" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L159">
         <v>4</v>
       </c>
-      <c r="M159" s="1" t="s">
-        <v>124</v>
+      <c r="M159" s="1">
+        <v>45498</v>
       </c>
       <c r="N159" s="1">
         <v>45499</v>
@@ -6166,31 +5982,31 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B160" t="s">
         <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D160">
         <v>9</v>
       </c>
       <c r="E160" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F160" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H160" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I160" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L160">
         <v>4</v>
@@ -6198,660 +6014,634 @@
       <c r="M160" s="1">
         <v>45509</v>
       </c>
-      <c r="N160" s="1"/>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B161" t="s">
         <v>12</v>
       </c>
       <c r="C161" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D161">
         <v>6</v>
       </c>
       <c r="E161" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J161" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L161">
         <v>4</v>
       </c>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
+      <c r="M161" s="1">
+        <v>45509</v>
+      </c>
       <c r="O161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B162" t="s">
         <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D162">
         <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H162" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I162" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L162">
         <v>4</v>
       </c>
-      <c r="M162" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N162" s="1"/>
+      <c r="M162" s="1">
+        <v>45498</v>
+      </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B163" t="s">
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D163">
         <v>8</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F163" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H163" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I163" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L163">
         <v>4</v>
       </c>
-      <c r="M163" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N163" s="1"/>
+      <c r="M163" s="1">
+        <v>45498</v>
+      </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B164" t="s">
         <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D164">
         <v>9</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F164" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H164" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I164" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L164">
         <v>4</v>
       </c>
-      <c r="M164" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N164" s="1"/>
+      <c r="M164" s="1">
+        <v>45498</v>
+      </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B165" t="s">
         <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D165">
         <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H165" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I165" t="s">
-        <v>25</v>
-      </c>
-      <c r="M165" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N165" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M165" s="1">
+        <v>45498</v>
+      </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B166" t="s">
         <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D166">
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="F166" t="s">
         <v>14</v>
       </c>
       <c r="G166" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J166" t="s">
         <v>16</v>
       </c>
       <c r="L166" t="s">
-        <v>84</v>
-      </c>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
+        <v>71</v>
+      </c>
       <c r="O166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B167" t="s">
         <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D167">
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F167" t="s">
         <v>14</v>
       </c>
       <c r="G167" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J167" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L167" t="s">
-        <v>84</v>
-      </c>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
+        <v>71</v>
+      </c>
       <c r="O167" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B168" t="s">
         <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D168">
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
       </c>
       <c r="G168" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J168" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L168" t="s">
         <v>17</v>
       </c>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
       <c r="O168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B169" t="s">
         <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D169">
         <v>4</v>
       </c>
       <c r="E169" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" t="s">
+        <v>20</v>
+      </c>
+      <c r="G169" t="s">
         <v>21</v>
       </c>
-      <c r="F169" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" t="s">
-        <v>23</v>
-      </c>
       <c r="H169" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I169" t="s">
-        <v>25</v>
-      </c>
-      <c r="M169" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N169" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M169" s="1">
+        <v>45467</v>
+      </c>
       <c r="O169" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B170" t="s">
         <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D170">
         <v>5</v>
       </c>
       <c r="E170" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
       </c>
       <c r="G170" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J170" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L170" t="s">
-        <v>84</v>
-      </c>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
+        <v>71</v>
+      </c>
       <c r="O170" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B171" t="s">
         <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D171">
         <v>6</v>
       </c>
       <c r="E171" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F171" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H171" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I171" t="s">
-        <v>25</v>
-      </c>
-      <c r="M171" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N171" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M171" s="1">
+        <v>45467</v>
+      </c>
       <c r="O171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B172" t="s">
         <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D172">
         <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H172" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I172" t="s">
-        <v>25</v>
-      </c>
-      <c r="M172" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N172" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M172" s="1">
+        <v>45467</v>
+      </c>
       <c r="O172" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B173" t="s">
         <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D173">
         <v>8</v>
       </c>
       <c r="E173" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H173" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I173" t="s">
-        <v>25</v>
-      </c>
-      <c r="M173" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N173" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M173" s="1">
+        <v>45467</v>
+      </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B174" t="s">
         <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D174">
         <v>9</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H174" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I174" t="s">
-        <v>25</v>
-      </c>
-      <c r="M174" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N174" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M174" s="1">
+        <v>45467</v>
+      </c>
       <c r="O174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B175" t="s">
         <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D175">
         <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F175" t="s">
         <v>14</v>
       </c>
       <c r="G175" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J175" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="L175" t="s">
         <v>17</v>
       </c>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
       <c r="O175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B176" t="s">
         <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D176">
         <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F176" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H176" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I176" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L176" t="s">
-        <v>84</v>
-      </c>
-      <c r="M176" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N176" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="M176" s="1">
+        <v>45467</v>
+      </c>
       <c r="O176" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B177" t="s">
         <v>12</v>
       </c>
       <c r="C177" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D177">
         <v>12</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H177" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I177" t="s">
-        <v>25</v>
-      </c>
-      <c r="M177" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N177" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="M177" s="1">
+        <v>45467</v>
+      </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B178" t="s">
         <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D178">
         <v>13</v>
       </c>
       <c r="E178" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="F178" t="s">
         <v>14</v>
       </c>
       <c r="G178" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J178" t="s">
-        <v>47</v>
-      </c>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B179" t="s">
         <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D179">
         <v>14</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H179" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I179" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M179" s="1">
         <v>45100</v>
@@ -6860,36 +6650,36 @@
         <v>45100</v>
       </c>
       <c r="O179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B180" t="s">
         <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D180">
         <v>1</v>
       </c>
       <c r="E180" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
       </c>
       <c r="G180" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J180" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L180" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M180" s="1">
         <v>45436</v>
@@ -6898,72 +6688,71 @@
         <v>45438</v>
       </c>
       <c r="O180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B181" t="s">
         <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="D181">
         <v>1</v>
       </c>
       <c r="E181" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H181" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I181" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M181" s="1">
         <v>45375</v>
       </c>
-      <c r="N181" s="1"/>
       <c r="O181" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B182" t="s">
         <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="D182">
         <v>2</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F182" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H182" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I182" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M182" s="1">
         <v>44736</v>
@@ -6972,36 +6761,36 @@
         <v>45106</v>
       </c>
       <c r="O182" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B183" t="s">
         <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="D183">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H183" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I183" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M183" s="1">
         <v>45536</v>
@@ -7011,6 +6800,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O183" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>